--- a/3.documentation/3.MarketSurvey/MarketSurvey.xlsx
+++ b/3.documentation/3.MarketSurvey/MarketSurvey.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="61">
   <si>
     <t>Name</t>
   </si>
@@ -199,6 +200,12 @@
   </si>
   <si>
     <t>3.3v</t>
+  </si>
+  <si>
+    <t>atmel solution requires:</t>
+  </si>
+  <si>
+    <t>main board</t>
   </si>
 </sst>
 </file>
@@ -407,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -463,6 +470,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1046,7 +1054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="G5" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
@@ -1375,4 +1383,35 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="19">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>